--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H2">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N2">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q2">
-        <v>12.43507869885711</v>
+        <v>8.744337888762221</v>
       </c>
       <c r="R2">
-        <v>111.915708289714</v>
+        <v>78.69904099886</v>
       </c>
       <c r="S2">
-        <v>0.05939457439110805</v>
+        <v>0.02946507941774481</v>
       </c>
       <c r="T2">
-        <v>0.05939457439110805</v>
+        <v>0.02946507941774482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H3">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P3">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q3">
-        <v>21.65097916331856</v>
+        <v>25.78781200867155</v>
       </c>
       <c r="R3">
-        <v>194.858812469867</v>
+        <v>232.090308078044</v>
       </c>
       <c r="S3">
-        <v>0.1034131527188681</v>
+        <v>0.08689507867964347</v>
       </c>
       <c r="T3">
-        <v>0.1034131527188681</v>
+        <v>0.08689507867964347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H4">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N4">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q4">
-        <v>4.988385030055777</v>
+        <v>20.17811810681066</v>
       </c>
       <c r="R4">
-        <v>44.89546527050199</v>
+        <v>181.603062961296</v>
       </c>
       <c r="S4">
-        <v>0.02382638766784552</v>
+        <v>0.06799255244721228</v>
       </c>
       <c r="T4">
-        <v>0.02382638766784552</v>
+        <v>0.06799255244721229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H5">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I5">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J5">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N5">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q5">
-        <v>6.908583900252222</v>
+        <v>6.944303283380442</v>
       </c>
       <c r="R5">
-        <v>62.17725510227</v>
+        <v>62.498729550424</v>
       </c>
       <c r="S5">
-        <v>0.03299797374329887</v>
+        <v>0.02339965019063032</v>
       </c>
       <c r="T5">
-        <v>0.03299797374329887</v>
+        <v>0.02339965019063032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H6">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I6">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J6">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N6">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q6">
-        <v>8.904752043211889</v>
+        <v>7.997374366351554</v>
       </c>
       <c r="R6">
-        <v>80.142768388907</v>
+        <v>71.976369297164</v>
       </c>
       <c r="S6">
-        <v>0.0425324174034805</v>
+        <v>0.02694809759591082</v>
       </c>
       <c r="T6">
-        <v>0.04253241740348051</v>
+        <v>0.02694809759591082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J7">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N7">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q7">
-        <v>26.65091350396356</v>
+        <v>15.73452145217111</v>
       </c>
       <c r="R7">
-        <v>239.858221535672</v>
+        <v>141.61069306954</v>
       </c>
       <c r="S7">
-        <v>0.1272947042022045</v>
+        <v>0.05301932863141653</v>
       </c>
       <c r="T7">
-        <v>0.1272947042022045</v>
+        <v>0.05301932863141654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J8">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P8">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q8">
         <v>46.40247053770178</v>
@@ -948,10 +948,10 @@
         <v>417.622234839316</v>
       </c>
       <c r="S8">
-        <v>0.2216355083089287</v>
+        <v>0.1563586056446961</v>
       </c>
       <c r="T8">
-        <v>0.2216355083089288</v>
+        <v>0.1563586056446961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J9">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N9">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q9">
-        <v>10.69112799203289</v>
+        <v>36.30841308454933</v>
       </c>
       <c r="R9">
-        <v>96.22015192829599</v>
+        <v>326.775717760944</v>
       </c>
       <c r="S9">
-        <v>0.05106481528790134</v>
+        <v>0.1223454867227194</v>
       </c>
       <c r="T9">
-        <v>0.05106481528790135</v>
+        <v>0.1223454867227195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>17.776364</v>
       </c>
       <c r="I10">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J10">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N10">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q10">
-        <v>14.80650636955111</v>
+        <v>12.49554744712622</v>
       </c>
       <c r="R10">
-        <v>133.25855732596</v>
+        <v>112.459927024136</v>
       </c>
       <c r="S10">
-        <v>0.07072139753482584</v>
+        <v>0.04210522312626343</v>
       </c>
       <c r="T10">
-        <v>0.07072139753482586</v>
+        <v>0.04210522312626343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>17.776364</v>
       </c>
       <c r="I11">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J11">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N11">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q11">
-        <v>19.08470241524845</v>
+        <v>14.39043871922178</v>
       </c>
       <c r="R11">
-        <v>171.762321737236</v>
+        <v>129.513948472996</v>
       </c>
       <c r="S11">
-        <v>0.09115565769911965</v>
+        <v>0.04849028309656042</v>
       </c>
       <c r="T11">
-        <v>0.09115565769911968</v>
+        <v>0.04849028309656043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H12">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I12">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J12">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N12">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q12">
-        <v>1.696794554327778</v>
+        <v>5.806016007717221</v>
       </c>
       <c r="R12">
-        <v>15.27115098895</v>
+        <v>52.25414406945499</v>
       </c>
       <c r="S12">
-        <v>0.008104523728724836</v>
+        <v>0.01956405675813856</v>
       </c>
       <c r="T12">
-        <v>0.00810452372872484</v>
+        <v>0.01956405675813857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H13">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I13">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J13">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P13">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q13">
-        <v>2.95432497291389</v>
+        <v>17.12244554487855</v>
       </c>
       <c r="R13">
-        <v>26.588924756225</v>
+        <v>154.102009903907</v>
       </c>
       <c r="S13">
-        <v>0.0141109580911112</v>
+        <v>0.05769610280662113</v>
       </c>
       <c r="T13">
-        <v>0.0141109580911112</v>
+        <v>0.05769610280662113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H14">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I14">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J14">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N14">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q14">
-        <v>0.6806763960944445</v>
+        <v>13.39775271999866</v>
       </c>
       <c r="R14">
-        <v>6.12608756485</v>
+        <v>120.579774479988</v>
       </c>
       <c r="S14">
-        <v>0.003251164373235413</v>
+        <v>0.04514531036379555</v>
       </c>
       <c r="T14">
-        <v>0.003251164373235413</v>
+        <v>0.04514531036379556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H15">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I15">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J15">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N15">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q15">
-        <v>0.9426918658055559</v>
+        <v>4.610839212602443</v>
       </c>
       <c r="R15">
-        <v>8.484226792250002</v>
+        <v>41.49755291342199</v>
       </c>
       <c r="S15">
-        <v>0.004502647993424163</v>
+        <v>0.01553676736993223</v>
       </c>
       <c r="T15">
-        <v>0.004502647993424163</v>
+        <v>0.01553676736993223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H16">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I16">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J16">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N16">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O16">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P16">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q16">
-        <v>1.215073514247222</v>
+        <v>5.310051393418554</v>
       </c>
       <c r="R16">
-        <v>10.935661628225</v>
+        <v>47.790462540767</v>
       </c>
       <c r="S16">
-        <v>0.005803644350015625</v>
+        <v>0.01789284540576366</v>
       </c>
       <c r="T16">
-        <v>0.005803644350015628</v>
+        <v>0.01789284540576366</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H17">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I17">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J17">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N17">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O17">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P17">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q17">
-        <v>4.006549066900223</v>
+        <v>3.106143898378333</v>
       </c>
       <c r="R17">
-        <v>36.058941602102</v>
+        <v>27.955295085405</v>
       </c>
       <c r="S17">
-        <v>0.01913677286397078</v>
+        <v>0.01046651877053853</v>
       </c>
       <c r="T17">
-        <v>0.01913677286397078</v>
+        <v>0.01046651877053853</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H18">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I18">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J18">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.493119</v>
       </c>
       <c r="O18">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P18">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q18">
-        <v>6.975887524720112</v>
+        <v>9.160288170726332</v>
       </c>
       <c r="R18">
-        <v>62.78298772248101</v>
+        <v>82.442593536537</v>
       </c>
       <c r="S18">
-        <v>0.03331944095931388</v>
+        <v>0.03086667302583911</v>
       </c>
       <c r="T18">
-        <v>0.0333194409593139</v>
+        <v>0.03086667302583911</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H19">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I19">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J19">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N19">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O19">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P19">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q19">
-        <v>1.607244302309556</v>
+        <v>7.167625409211999</v>
       </c>
       <c r="R19">
-        <v>14.465198720786</v>
+        <v>64.508628682908</v>
       </c>
       <c r="S19">
-        <v>0.007676798321106177</v>
+        <v>0.02415216047294946</v>
       </c>
       <c r="T19">
-        <v>0.007676798321106178</v>
+        <v>0.02415216047294946</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H20">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I20">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J20">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N20">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O20">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P20">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q20">
-        <v>2.225927237734445</v>
+        <v>2.466739683044666</v>
       </c>
       <c r="R20">
-        <v>20.03334513961</v>
+        <v>22.200657147402</v>
       </c>
       <c r="S20">
-        <v>0.01063185880142143</v>
+        <v>0.008311970739056394</v>
       </c>
       <c r="T20">
-        <v>0.01063185880142143</v>
+        <v>0.008311970739056396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H21">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I21">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J21">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N21">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O21">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P21">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q21">
-        <v>2.869087269466778</v>
+        <v>2.840809207866333</v>
       </c>
       <c r="R21">
-        <v>25.82178542520101</v>
+        <v>25.567282870797</v>
       </c>
       <c r="S21">
-        <v>0.01370383102413236</v>
+        <v>0.00957244218890663</v>
       </c>
       <c r="T21">
-        <v>0.01370383102413237</v>
+        <v>0.009572442188906632</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H22">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I22">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J22">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N22">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O22">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P22">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q22">
-        <v>2.643014543142</v>
+        <v>3.866419238347777</v>
       </c>
       <c r="R22">
-        <v>23.787130888278</v>
+        <v>34.79777314512999</v>
       </c>
       <c r="S22">
-        <v>0.01262402335369665</v>
+        <v>0.01302835633405972</v>
       </c>
       <c r="T22">
-        <v>0.01262402335369666</v>
+        <v>0.01302835633405972</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H23">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I23">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J23">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>23.493119</v>
       </c>
       <c r="O23">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P23">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q23">
-        <v>4.601808656601</v>
+        <v>11.40240618942244</v>
       </c>
       <c r="R23">
-        <v>41.416277909409</v>
+        <v>102.621655704802</v>
       </c>
       <c r="S23">
-        <v>0.02197995470774574</v>
+        <v>0.03842175453403882</v>
       </c>
       <c r="T23">
-        <v>0.02197995470774574</v>
+        <v>0.03842175453403882</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H24">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I24">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J24">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N24">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O24">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P24">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q24">
-        <v>1.060256593506</v>
+        <v>8.922009308685331</v>
       </c>
       <c r="R24">
-        <v>9.542309341553999</v>
+        <v>80.29808377816799</v>
       </c>
       <c r="S24">
-        <v>0.00506418098684351</v>
+        <v>0.03006376425413772</v>
       </c>
       <c r="T24">
-        <v>0.005064180986843511</v>
+        <v>0.03006376425413772</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H25">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I25">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J25">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N25">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O25">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P25">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q25">
-        <v>1.46838537681</v>
+        <v>3.070511244343554</v>
       </c>
       <c r="R25">
-        <v>13.21546839129</v>
+        <v>27.63460119909199</v>
       </c>
       <c r="S25">
-        <v>0.007013556295849779</v>
+        <v>0.01034645033375625</v>
       </c>
       <c r="T25">
-        <v>0.00701355629584978</v>
+        <v>0.01034645033375625</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H26">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I26">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J26">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N26">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O26">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P26">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q26">
-        <v>1.892661053721</v>
+        <v>3.536139899862444</v>
       </c>
       <c r="R26">
-        <v>17.033949483489</v>
+        <v>31.82525909876199</v>
       </c>
       <c r="S26">
-        <v>0.009040055191827347</v>
+        <v>0.01191544108966857</v>
       </c>
       <c r="T26">
-        <v>0.009040055191827349</v>
+        <v>0.01191544108966857</v>
       </c>
     </row>
   </sheetData>
